--- a/Linux/程序员的自我修养/ELF_full.xlsx
+++ b/Linux/程序员的自我修养/ELF_full.xlsx
@@ -85,7 +85,7 @@
     <t>0x130</t>
   </si>
   <si>
-    <t>othrtsection</t>
+    <t>othersection</t>
   </si>
   <si>
     <t>0x450</t>
@@ -111,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -132,17 +132,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,29 +176,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -185,18 +184,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,9 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +233,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,7 +261,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -332,25 +332,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,157 +470,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,8 +674,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,11 +689,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,172 +768,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1036,21 +1036,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
@@ -1060,12 +1051,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
@@ -1084,13 +1069,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -1441,8 +1420,8 @@
   <sheetPr/>
   <dimension ref="O24:AU62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38:AF38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="20" customHeight="true"/>
@@ -1539,12 +1518,12 @@
       <c r="AC25" s="34"/>
       <c r="AD25" s="34"/>
       <c r="AE25" s="34"/>
-      <c r="AF25" s="42"/>
-      <c r="AK25" s="60" t="s">
+      <c r="AF25" s="40"/>
+      <c r="AK25" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AL25" s="60"/>
-      <c r="AM25" s="60"/>
+      <c r="AL25" s="53"/>
+      <c r="AM25" s="53"/>
       <c r="AN25" s="25" t="s">
         <v>6</v>
       </c>
@@ -1577,11 +1556,11 @@
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
-      <c r="AK26" s="61" t="s">
+      <c r="AK26" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AL26" s="61"/>
-      <c r="AM26" s="61"/>
+      <c r="AL26" s="54"/>
+      <c r="AM26" s="54"/>
       <c r="AN26" s="25" t="s">
         <v>8</v>
       </c>
@@ -1657,15 +1636,15 @@
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
-      <c r="AC28" s="43"/>
-      <c r="AD28" s="43"/>
-      <c r="AE28" s="43"/>
-      <c r="AF28" s="44"/>
-      <c r="AK28" s="62" t="s">
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="41"/>
+      <c r="AK28" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="AL28" s="62"/>
-      <c r="AM28" s="62"/>
+      <c r="AL28" s="55"/>
+      <c r="AM28" s="55"/>
       <c r="AN28" s="25" t="s">
         <v>13</v>
       </c>
@@ -1690,15 +1669,15 @@
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="46"/>
-      <c r="AK29" s="63" t="s">
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="42"/>
+      <c r="AF29" s="43"/>
+      <c r="AK29" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AL29" s="63"/>
-      <c r="AM29" s="63"/>
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="56"/>
       <c r="AN29" s="25" t="s">
         <v>15</v>
       </c>
@@ -1723,13 +1702,13 @@
       <c r="Z30" s="35"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="46"/>
-      <c r="AH30" s="57"/>
-      <c r="AI30" s="57"/>
-      <c r="AJ30" s="57"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="43"/>
+      <c r="AH30" s="51"/>
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="51"/>
       <c r="AK30" s="25" t="s">
         <v>16</v>
       </c>
@@ -1759,15 +1738,15 @@
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="46"/>
-      <c r="AK31" s="64" t="s">
+      <c r="AC31" s="42"/>
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="42"/>
+      <c r="AF31" s="43"/>
+      <c r="AK31" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="AL31" s="65"/>
-      <c r="AM31" s="66"/>
+      <c r="AL31" s="58"/>
+      <c r="AM31" s="59"/>
       <c r="AN31" s="25" t="s">
         <v>19</v>
       </c>
@@ -1792,10 +1771,10 @@
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
-      <c r="AC32" s="47"/>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="47"/>
-      <c r="AF32" s="48"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="38"/>
     </row>
     <row r="33" customHeight="true" spans="17:36">
       <c r="Q33" s="9"/>
@@ -1816,13 +1795,13 @@
       <c r="AB33" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AC33" s="49"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="50"/>
-      <c r="AH33" s="58"/>
-      <c r="AI33" s="58"/>
-      <c r="AJ33" s="58"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="45"/>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="51"/>
+      <c r="AJ33" s="51"/>
     </row>
     <row r="34" customHeight="true" spans="15:32">
       <c r="O34" s="2" t="s">
@@ -1844,7 +1823,7 @@
       <c r="AC34" s="13"/>
       <c r="AD34" s="13"/>
       <c r="AE34" s="13"/>
-      <c r="AF34" s="51"/>
+      <c r="AF34" s="46"/>
     </row>
     <row r="35" customHeight="true" spans="17:33">
       <c r="Q35" s="12"/>
@@ -1863,7 +1842,7 @@
       <c r="AD35" s="15"/>
       <c r="AE35" s="15"/>
       <c r="AF35" s="15"/>
-      <c r="AG35" s="59"/>
+      <c r="AG35" s="52"/>
     </row>
     <row r="36" customHeight="true" spans="17:32">
       <c r="Q36" s="14"/>
@@ -1881,7 +1860,7 @@
       <c r="AC36" s="16"/>
       <c r="AD36" s="16"/>
       <c r="AE36" s="16"/>
-      <c r="AF36" s="52"/>
+      <c r="AF36" s="47"/>
     </row>
     <row r="37" customHeight="true" spans="17:32">
       <c r="Q37" s="14"/>
@@ -1904,14 +1883,14 @@
       <c r="X37" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="40"/>
-      <c r="AA37" s="40"/>
-      <c r="AB37" s="40"/>
-      <c r="AC37" s="40"/>
-      <c r="AD37" s="40"/>
-      <c r="AE37" s="40"/>
-      <c r="AF37" s="53"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="48"/>
     </row>
     <row r="38" customHeight="true" spans="17:32">
       <c r="Q38" s="19"/>
@@ -1922,14 +1901,14 @@
       <c r="V38" s="20"/>
       <c r="W38" s="20"/>
       <c r="X38" s="20"/>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="41"/>
-      <c r="AB38" s="41"/>
-      <c r="AC38" s="41"/>
-      <c r="AD38" s="41"/>
-      <c r="AE38" s="41"/>
-      <c r="AF38" s="54"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="49"/>
     </row>
     <row r="39" customHeight="true" spans="17:32">
       <c r="Q39" s="21"/>
@@ -1947,7 +1926,7 @@
       <c r="AC39" s="22"/>
       <c r="AD39" s="22"/>
       <c r="AE39" s="22"/>
-      <c r="AF39" s="55"/>
+      <c r="AF39" s="49"/>
     </row>
     <row r="40" customHeight="true" spans="17:32">
       <c r="Q40" s="21"/>
@@ -1965,7 +1944,7 @@
       <c r="AC40" s="22"/>
       <c r="AD40" s="22"/>
       <c r="AE40" s="22"/>
-      <c r="AF40" s="55"/>
+      <c r="AF40" s="49"/>
     </row>
     <row r="41" customHeight="true" spans="17:32">
       <c r="Q41" s="21"/>
@@ -1983,7 +1962,7 @@
       <c r="AC41" s="22"/>
       <c r="AD41" s="22"/>
       <c r="AE41" s="22"/>
-      <c r="AF41" s="55"/>
+      <c r="AF41" s="49"/>
     </row>
     <row r="42" customHeight="true" spans="17:32">
       <c r="Q42" s="23"/>
@@ -2001,7 +1980,7 @@
       <c r="AC42" s="24"/>
       <c r="AD42" s="24"/>
       <c r="AE42" s="24"/>
-      <c r="AF42" s="56"/>
+      <c r="AF42" s="50"/>
     </row>
     <row r="43" customHeight="true" spans="15:32">
       <c r="O43" s="2" t="s">
